--- a/biology/Biologie cellulaire et moléculaire/Synapsis/Synapsis.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Synapsis/Synapsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La synapsis ou appariement est l'union des chromosomes homologues qui donnent des tétrades, des groupes de 4 chromatides. La synapsis se déroule grâce à la formation du complexe synaptonémal, composé d'une longue matrice protéique de chaque côté de laquelle les deux homologues sont alignés. Elle n'a lieu que pendant la méiose.
 Durant la synapsis, les bras des chromatides homologues adjacentes subissent l'enjambement ou autrement un brassage intra-chromosomique qui se crée en un ou plusieurs points d'ancrages appelés chiasmata (chiasma au singulier). En général, plus les chromatides sont longues, plus les chiasmata sont nombreux.
